--- a/Sprint 1/Global/BD/Excell/questionReponseChoixReponse.xlsx
+++ b/Sprint 1/Global/BD/Excell/questionReponseChoixReponse.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>idReponse</t>
-  </si>
-  <si>
-    <t>idQuestionChoixReponse</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40,18 +33,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,12 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -353,11 +337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,11 +351,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1">
         <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -379,7 +363,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -387,7 +371,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -395,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -403,15 +387,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -419,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -443,15 +427,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -459,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -467,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -475,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,15 +467,15 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -499,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,15 +507,15 @@
         <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,15 +547,15 @@
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,15 +587,15 @@
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,15 +627,15 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,15 +667,15 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,15 +707,15 @@
         <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,15 +747,15 @@
         <v>10</v>
       </c>
       <c r="B50" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,15 +787,15 @@
         <v>11</v>
       </c>
       <c r="B55" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,15 +827,15 @@
         <v>12</v>
       </c>
       <c r="B60" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,15 +867,15 @@
         <v>13</v>
       </c>
       <c r="B65" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="B67" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,15 +907,15 @@
         <v>14</v>
       </c>
       <c r="B70" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="B74" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,15 +947,15 @@
         <v>15</v>
       </c>
       <c r="B75" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="B77" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -987,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1003,15 +987,15 @@
         <v>16</v>
       </c>
       <c r="B80" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="B82" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="B84" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,15 +1027,15 @@
         <v>17</v>
       </c>
       <c r="B85" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B88" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,15 +1067,15 @@
         <v>18</v>
       </c>
       <c r="B90" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1107,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="B93" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,15 +1107,15 @@
         <v>19</v>
       </c>
       <c r="B95" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B96" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="B97" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,15 +1147,15 @@
         <v>20</v>
       </c>
       <c r="B100" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B101" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="B102" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="B103" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,15 +1187,15 @@
         <v>21</v>
       </c>
       <c r="B105" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,14 +1227,6 @@
         <v>22</v>
       </c>
       <c r="B110" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>22</v>
-      </c>
-      <c r="B111" s="1">
         <v>114</v>
       </c>
     </row>
